--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k001125\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\TestRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97801968-BA6E-4221-8A00-940EB874C5C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E114A9-198E-45A7-AC81-9F0B629DEC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26220" yWindow="1260" windowWidth="21600" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="整形後" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整形後!$B$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整形後!$B$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
   <si>
     <t>Cybozu</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>OAuthクライアント</t>
-  </si>
-  <si>
-    <t>メール送信に用いられる通信プロトコル</t>
-  </si>
-  <si>
-    <t>SMTP</t>
   </si>
   <si>
     <t>Single Sign On の略。1組のID・パスワードによる認証を1度行うだけで、複数のWebサービス・クラウドサービス・アプリケーションにログインできるようにする仕組み。</t>
@@ -1043,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1F467-7FCE-402D-8DD2-8079A1A1F355}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1057,16 +1051,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1119,10 +1113,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>2</v>
@@ -1134,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>2</v>
@@ -1167,13 +1161,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1182,10 +1176,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1251,10 +1245,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>2</v>
@@ -1263,10 +1257,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>2</v>
@@ -1287,13 +1281,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1302,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1323,13 +1317,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1338,10 +1332,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1371,34 +1365,34 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>2</v>
@@ -1419,10 +1413,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>2</v>
@@ -1434,7 +1428,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>2</v>
@@ -1455,13 +1449,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -1470,10 +1464,10 @@
         <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1551,7 +1545,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
@@ -1563,10 +1557,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>2</v>
@@ -1587,10 +1581,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>2</v>
@@ -1602,7 +1596,7 @@
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>2</v>
@@ -1647,10 +1641,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>2</v>
@@ -1662,7 +1656,7 @@
         <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>2</v>
@@ -1707,58 +1701,58 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>2</v>
@@ -1770,7 +1764,7 @@
         <v>170</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>2</v>
@@ -1779,10 +1773,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>2</v>
@@ -1791,10 +1785,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>2</v>
@@ -1803,10 +1797,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>2</v>
@@ -1983,25 +1977,25 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -2010,10 +2004,10 @@
         <v>148</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1"/>
     </row>
@@ -2055,10 +2049,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>2</v>
@@ -2067,10 +2061,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>2</v>
@@ -2082,7 +2076,7 @@
         <v>158</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>2</v>
@@ -2103,30 +2097,18 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:D89" xr:uid="{F9E3EF2E-BAA6-4194-910E-D17F5FACEE97}"/>
+  <autoFilter ref="B1:D88" xr:uid="{F9E3EF2E-BAA6-4194-910E-D17F5FACEE97}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
